--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="9492"/>
+    <workbookView windowWidth="18480" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>名</t>
+    <t>B1</t>
   </si>
   <si>
-    <t>面包</t>
+    <t>C1</t>
   </si>
   <si>
-    <t>biubiu</t>
+    <t>B2</t>
   </si>
   <si>
-    <t>爱情</t>
+    <t>C2</t>
   </si>
   <si>
-    <t>论文</t>
+    <t>D2</t>
   </si>
   <si>
-    <t>西瓜</t>
+    <t>B3</t>
   </si>
   <si>
-    <t>毕业</t>
+    <t>C3</t>
   </si>
   <si>
-    <t>明天</t>
+    <t>D3</t>
   </si>
   <si>
-    <t>一个</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D4</t>
   </si>
 </sst>
 </file>
@@ -48,8 +51,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -63,15 +66,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,76 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,16 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,19 +218,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,25 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,133 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +409,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,35 +432,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,15 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,6 +462,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,7 +985,7 @@
   <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1007,22 +1010,22 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3">
-        <v>456</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="9347"/>
+    <workbookView windowWidth="18480" windowHeight="9347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="哈哈哈" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="11">
   <si>
     <t>B1</t>
   </si>
@@ -45,6 +49,9 @@
   <si>
     <t>D4</t>
   </si>
+  <si>
+    <t>ccc</t>
+  </si>
 </sst>
 </file>
 
@@ -56,7 +63,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +72,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -73,14 +88,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,47 +132,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +186,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,14 +223,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -218,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,11 +427,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,17 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,15 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,21 +524,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,138 +544,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,8 +1002,8 @@
   <sheetPr/>
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1032,4 +1050,273 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>